--- a/Hints/hintGuide.xlsx
+++ b/Hints/hintGuide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robmorse/Desktop/Hints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robmorse/Documents/GitHub/MIT_Prodigy/Hints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C03A4A1-FC03-CF47-BF1B-C8A8031CD6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5E8CC-6521-8948-AEA5-441B6A235835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="500" windowWidth="20760" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="500" windowWidth="20760" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>Event ID</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Fortunately for you, I might have some insider information. I’m a pretty popular bird some might say and I just so happen to have met a couple fellas who can help us. Use your wand to get these guys talking and let's see if we can work out how to get into that chest.</t>
-  </si>
-  <si>
-    <t>3 - Animals talk.jpg</t>
   </si>
   <si>
     <t>Great work team, now those look like some magical runes if ever I did see them. The question is which spell could they have used to seal off the Sanctum? We’re going to need to use the wand to see the remnants of the Spell that was cast by placing the wand against the sun &amp; moon symbol on my right. Once we can see the energy of the runes that were previously cast we’ll know how to place those runes on the shrine.</t>
@@ -309,6 +306,12 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>3-Animalstalk.jpg</t>
+  </si>
+  <si>
+    <t>Be careful there! I’d hate to bring her back to her mum all scrambled</t>
   </si>
 </sst>
 </file>
@@ -624,8 +627,8 @@
   </sheetPr>
   <dimension ref="A1:H1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -648,19 +651,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -672,13 +675,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -692,13 +695,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -712,13 +715,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
@@ -732,13 +735,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
@@ -752,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
@@ -772,13 +775,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
@@ -792,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
@@ -812,17 +815,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -834,17 +837,17 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -856,13 +859,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -881,13 +884,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
@@ -903,19 +906,21 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -923,13 +928,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -944,20 +949,20 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -965,16 +970,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -986,17 +991,17 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1008,13 +1013,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1028,17 +1033,17 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1050,17 +1055,17 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1072,16 +1077,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1093,17 +1098,17 @@
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1115,17 +1120,17 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1137,13 +1142,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1157,17 +1162,17 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1179,13 +1184,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1199,17 +1204,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1221,17 +1226,17 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1240,16 +1245,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
